--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="ROW35-FE-LIFTER" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="ROW3-MID-LIFTER" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ROW35-MID-LIFTER" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ROW02-FE-LIFTER" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="ROW02-MID-LIFTER" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
@@ -701,7 +701,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -956,6 +956,47 @@
         <v>400</v>
       </c>
       <c r="I6" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-03-04 14:29:35</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>400</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>400</v>
+      </c>
+      <c r="I7" t="n">
         <v>14</v>
       </c>
     </row>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -1280,7 +1280,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1538,6 +1538,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-03-04 14:41:15</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>400</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>400</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -687,6 +687,47 @@
         <v>400</v>
       </c>
       <c r="I6" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-03-04 14:42:06</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>400</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>400</v>
+      </c>
+      <c r="I7" t="n">
         <v>13</v>
       </c>
     </row>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -1052,7 +1052,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1307,6 +1307,47 @@
         <v>400</v>
       </c>
       <c r="I6" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-03-04 14:51:45</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>400</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>400</v>
+      </c>
+      <c r="I7" t="n">
         <v>255</v>
       </c>
     </row>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -728,6 +728,211 @@
         <v>400</v>
       </c>
       <c r="I7" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-03-04 15:42:06</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>400</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>400</v>
+      </c>
+      <c r="I8" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-03-04 16:42:06</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>400</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>400</v>
+      </c>
+      <c r="I9" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-03-04 17:42:06</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>400</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>400</v>
+      </c>
+      <c r="I10" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-03-04 18:42:06</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>400</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>400</v>
+      </c>
+      <c r="I11" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-03-04 19:42:06</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>400</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>400</v>
+      </c>
+      <c r="I12" t="n">
         <v>13</v>
       </c>
     </row>
@@ -742,7 +947,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1038,6 +1243,211 @@
         <v>400</v>
       </c>
       <c r="I7" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-03-04 15:29:35</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>400</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>400</v>
+      </c>
+      <c r="I8" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-03-04 16:29:35</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>400</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>400</v>
+      </c>
+      <c r="I9" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-03-04 17:29:35</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>400</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>400</v>
+      </c>
+      <c r="I10" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-03-04 18:29:35</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>400</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>400</v>
+      </c>
+      <c r="I11" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-03-04 19:29:35</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>400</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>400</v>
+      </c>
+      <c r="I12" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1052,7 +1462,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1348,6 +1758,211 @@
         <v>400</v>
       </c>
       <c r="I7" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-03-04 15:51:45</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>400</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>400</v>
+      </c>
+      <c r="I8" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-03-04 16:51:45</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>400</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>400</v>
+      </c>
+      <c r="I9" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-03-04 17:51:45</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>400</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>400</v>
+      </c>
+      <c r="I10" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-03-04 18:51:45</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>400</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>400</v>
+      </c>
+      <c r="I11" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-03-04 19:51:45</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>400</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>400</v>
+      </c>
+      <c r="I12" t="n">
         <v>255</v>
       </c>
     </row>
@@ -1362,7 +1977,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1661,6 +2276,211 @@
         <v>3</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-03-04 15:41:15</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>400</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>400</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-03-04 16:41:15</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>400</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>400</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-03-04 17:41:15</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>400</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>400</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-03-04 18:41:15</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>400</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>400</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-03-04 19:41:15</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>400</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>400</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -947,7 +947,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1448,6 +1448,47 @@
         <v>400</v>
       </c>
       <c r="I12" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-03-04 20:29:35</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>400</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>400</v>
+      </c>
+      <c r="I13" t="n">
         <v>14</v>
       </c>
     </row>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -933,6 +933,47 @@
         <v>400</v>
       </c>
       <c r="I12" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-03-04 20:42:06</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>400</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>400</v>
+      </c>
+      <c r="I13" t="n">
         <v>13</v>
       </c>
     </row>
@@ -1503,7 +1544,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2004,6 +2045,47 @@
         <v>400</v>
       </c>
       <c r="I12" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-03-04 20:51:45</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>400</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>400</v>
+      </c>
+      <c r="I13" t="n">
         <v>255</v>
       </c>
     </row>
@@ -2018,7 +2100,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2522,6 +2604,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-03-04 20:41:15</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>400</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>400</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -988,7 +988,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1530,6 +1530,47 @@
         <v>400</v>
       </c>
       <c r="I13" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-03-04 21:29:35</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>400</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>400</v>
+      </c>
+      <c r="I14" t="n">
         <v>14</v>
       </c>
     </row>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -974,6 +974,47 @@
         <v>400</v>
       </c>
       <c r="I13" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-03-04 21:42:06</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>400</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>400</v>
+      </c>
+      <c r="I14" t="n">
         <v>13</v>
       </c>
     </row>
@@ -1585,7 +1626,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2127,6 +2168,47 @@
         <v>400</v>
       </c>
       <c r="I13" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-03-04 21:51:45</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>400</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>400</v>
+      </c>
+      <c r="I14" t="n">
         <v>255</v>
       </c>
     </row>
@@ -2141,7 +2223,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2686,6 +2768,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-03-04 21:41:15</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>400</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>400</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -1029,7 +1029,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1612,6 +1612,47 @@
         <v>400</v>
       </c>
       <c r="I14" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-03-04 22:29:35</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>400</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>400</v>
+      </c>
+      <c r="I15" t="n">
         <v>14</v>
       </c>
     </row>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1015,6 +1015,47 @@
         <v>400</v>
       </c>
       <c r="I14" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-03-04 22:42:06</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>400</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>400</v>
+      </c>
+      <c r="I15" t="n">
         <v>13</v>
       </c>
     </row>
@@ -1667,7 +1708,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2250,6 +2291,47 @@
         <v>400</v>
       </c>
       <c r="I14" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-03-04 22:51:45</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>400</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>400</v>
+      </c>
+      <c r="I15" t="n">
         <v>255</v>
       </c>
     </row>
@@ -2264,7 +2346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2850,6 +2932,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-03-04 22:41:15</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>400</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>400</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -1070,7 +1070,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1694,6 +1694,47 @@
         <v>400</v>
       </c>
       <c r="I15" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-03-04 23:29:35</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>400</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>400</v>
+      </c>
+      <c r="I16" t="n">
         <v>14</v>
       </c>
     </row>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1056,6 +1056,47 @@
         <v>400</v>
       </c>
       <c r="I15" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-03-04 23:42:06</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>400</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>400</v>
+      </c>
+      <c r="I16" t="n">
         <v>13</v>
       </c>
     </row>
@@ -1749,7 +1790,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2373,6 +2414,47 @@
         <v>400</v>
       </c>
       <c r="I15" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-03-04 23:51:45</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>400</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>400</v>
+      </c>
+      <c r="I16" t="n">
         <v>255</v>
       </c>
     </row>
@@ -2387,7 +2469,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3014,6 +3096,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-03-04 23:41:15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>400</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>400</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -1111,7 +1111,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1776,6 +1776,47 @@
         <v>400</v>
       </c>
       <c r="I16" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-03-05 00:29:35</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>400</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>400</v>
+      </c>
+      <c r="I17" t="n">
         <v>14</v>
       </c>
     </row>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1097,6 +1097,47 @@
         <v>400</v>
       </c>
       <c r="I16" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-03-05 00:42:06</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>400</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>400</v>
+      </c>
+      <c r="I17" t="n">
         <v>13</v>
       </c>
     </row>
@@ -1831,7 +1872,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2496,6 +2537,47 @@
         <v>400</v>
       </c>
       <c r="I16" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-03-05 00:51:45</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>400</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>400</v>
+      </c>
+      <c r="I17" t="n">
         <v>255</v>
       </c>
     </row>
@@ -2510,7 +2592,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3178,6 +3260,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-03-05 00:41:15</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>400</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>400</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -1152,7 +1152,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1858,6 +1858,47 @@
         <v>400</v>
       </c>
       <c r="I17" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-03-05 01:29:35</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>400</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>400</v>
+      </c>
+      <c r="I18" t="n">
         <v>14</v>
       </c>
     </row>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1138,6 +1138,47 @@
         <v>400</v>
       </c>
       <c r="I17" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-03-05 01:42:06</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>400</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>400</v>
+      </c>
+      <c r="I18" t="n">
         <v>13</v>
       </c>
     </row>
@@ -1913,7 +1954,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2619,6 +2660,47 @@
         <v>400</v>
       </c>
       <c r="I17" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-03-05 01:51:45</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>400</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>400</v>
+      </c>
+      <c r="I18" t="n">
         <v>255</v>
       </c>
     </row>
@@ -2633,7 +2715,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3342,6 +3424,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-03-05 01:41:15</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>400</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>400</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -1193,7 +1193,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1940,6 +1940,47 @@
         <v>400</v>
       </c>
       <c r="I18" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-03-05 02:29:35</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>400</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>400</v>
+      </c>
+      <c r="I19" t="n">
         <v>14</v>
       </c>
     </row>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1179,6 +1179,47 @@
         <v>400</v>
       </c>
       <c r="I18" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-03-05 02:42:06</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>400</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>400</v>
+      </c>
+      <c r="I19" t="n">
         <v>13</v>
       </c>
     </row>
@@ -1995,7 +2036,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2742,6 +2783,47 @@
         <v>400</v>
       </c>
       <c r="I18" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-03-05 02:51:45</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>400</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>400</v>
+      </c>
+      <c r="I19" t="n">
         <v>255</v>
       </c>
     </row>
@@ -2756,7 +2838,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3506,6 +3588,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-03-05 02:41:15</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>400</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>400</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -1234,7 +1234,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2022,6 +2022,47 @@
         <v>400</v>
       </c>
       <c r="I19" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-03-05 03:29:35</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>400</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>400</v>
+      </c>
+      <c r="I20" t="n">
         <v>14</v>
       </c>
     </row>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1220,6 +1220,47 @@
         <v>400</v>
       </c>
       <c r="I19" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-03-05 03:42:06</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>400</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>400</v>
+      </c>
+      <c r="I20" t="n">
         <v>13</v>
       </c>
     </row>
@@ -2077,7 +2118,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2865,6 +2906,47 @@
         <v>400</v>
       </c>
       <c r="I19" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-03-05 03:51:45</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>400</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>400</v>
+      </c>
+      <c r="I20" t="n">
         <v>255</v>
       </c>
     </row>
@@ -2879,7 +2961,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3670,6 +3752,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-03-05 03:41:15</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>400</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>400</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -1275,7 +1275,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2104,6 +2104,47 @@
         <v>400</v>
       </c>
       <c r="I20" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-03-05 04:29:35</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>400</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>400</v>
+      </c>
+      <c r="I21" t="n">
         <v>14</v>
       </c>
     </row>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1261,6 +1261,47 @@
         <v>400</v>
       </c>
       <c r="I20" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-03-05 04:42:06</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>400</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>400</v>
+      </c>
+      <c r="I21" t="n">
         <v>13</v>
       </c>
     </row>
@@ -2159,7 +2200,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2988,6 +3029,47 @@
         <v>400</v>
       </c>
       <c r="I20" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-03-05 04:51:45</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>400</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>400</v>
+      </c>
+      <c r="I21" t="n">
         <v>255</v>
       </c>
     </row>
@@ -3002,7 +3084,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3834,6 +3916,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-03-05 04:41:15</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>400</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>400</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -1316,7 +1316,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2186,6 +2186,47 @@
         <v>400</v>
       </c>
       <c r="I21" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-03-05 05:29:35</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>400</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>400</v>
+      </c>
+      <c r="I22" t="n">
         <v>14</v>
       </c>
     </row>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1302,6 +1302,47 @@
         <v>400</v>
       </c>
       <c r="I21" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-03-05 05:42:06</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>400</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>400</v>
+      </c>
+      <c r="I22" t="n">
         <v>13</v>
       </c>
     </row>
@@ -2241,7 +2282,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3111,6 +3152,47 @@
         <v>400</v>
       </c>
       <c r="I21" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-03-05 05:51:45</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>400</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>400</v>
+      </c>
+      <c r="I22" t="n">
         <v>255</v>
       </c>
     </row>
@@ -3125,7 +3207,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3998,6 +4080,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-03-05 05:41:15</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>400</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>400</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -1357,7 +1357,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2268,6 +2268,47 @@
         <v>400</v>
       </c>
       <c r="I22" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-03-05 06:29:35</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>400</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>400</v>
+      </c>
+      <c r="I23" t="n">
         <v>14</v>
       </c>
     </row>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1343,6 +1343,47 @@
         <v>400</v>
       </c>
       <c r="I22" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-03-05 06:42:06</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>400</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>400</v>
+      </c>
+      <c r="I23" t="n">
         <v>13</v>
       </c>
     </row>
@@ -2323,7 +2364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3234,6 +3275,47 @@
         <v>400</v>
       </c>
       <c r="I22" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-03-05 06:51:45</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>400</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>400</v>
+      </c>
+      <c r="I23" t="n">
         <v>255</v>
       </c>
     </row>
@@ -3248,7 +3330,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4162,6 +4244,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-03-05 06:41:15</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>400</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>400</v>
+      </c>
+      <c r="I23" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -1398,7 +1398,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2350,6 +2350,47 @@
         <v>400</v>
       </c>
       <c r="I23" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-03-05 07:29:35</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>400</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>400</v>
+      </c>
+      <c r="I24" t="n">
         <v>14</v>
       </c>
     </row>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1384,6 +1384,47 @@
         <v>400</v>
       </c>
       <c r="I23" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-03-05 07:42:06</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>400</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>400</v>
+      </c>
+      <c r="I24" t="n">
         <v>13</v>
       </c>
     </row>
@@ -2405,7 +2446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3357,6 +3398,47 @@
         <v>400</v>
       </c>
       <c r="I23" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-03-05 07:51:45</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>400</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>400</v>
+      </c>
+      <c r="I24" t="n">
         <v>255</v>
       </c>
     </row>
@@ -3371,7 +3453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4326,6 +4408,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-03-05 07:41:15</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>400</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>400</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -1439,7 +1439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2432,6 +2432,47 @@
         <v>400</v>
       </c>
       <c r="I24" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-03-05 08:29:35</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>400</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>400</v>
+      </c>
+      <c r="I25" t="n">
         <v>14</v>
       </c>
     </row>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1425,6 +1425,47 @@
         <v>400</v>
       </c>
       <c r="I24" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-03-05 08:42:06</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>400</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>400</v>
+      </c>
+      <c r="I25" t="n">
         <v>13</v>
       </c>
     </row>
@@ -2487,7 +2528,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3480,6 +3521,47 @@
         <v>400</v>
       </c>
       <c r="I24" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-03-05 08:51:45</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>400</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>400</v>
+      </c>
+      <c r="I25" t="n">
         <v>255</v>
       </c>
     </row>
@@ -3494,7 +3576,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4490,6 +4572,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-03-05 08:41:15</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>400</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>400</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -1480,7 +1480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2514,6 +2514,47 @@
         <v>400</v>
       </c>
       <c r="I25" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-03-05 09:29:35</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>400</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>400</v>
+      </c>
+      <c r="I26" t="n">
         <v>14</v>
       </c>
     </row>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1466,6 +1466,47 @@
         <v>400</v>
       </c>
       <c r="I25" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-03-05 09:42:06</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>400</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>400</v>
+      </c>
+      <c r="I26" t="n">
         <v>13</v>
       </c>
     </row>
@@ -2569,7 +2610,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3603,6 +3644,47 @@
         <v>400</v>
       </c>
       <c r="I25" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-03-05 09:51:45</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>400</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>400</v>
+      </c>
+      <c r="I26" t="n">
         <v>255</v>
       </c>
     </row>
@@ -3617,7 +3699,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4654,6 +4736,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-03-05 09:41:15</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>400</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>400</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -1521,7 +1521,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2596,6 +2596,47 @@
         <v>400</v>
       </c>
       <c r="I26" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-03-05 10:29:35</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>400</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>400</v>
+      </c>
+      <c r="I27" t="n">
         <v>14</v>
       </c>
     </row>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1507,6 +1507,47 @@
         <v>400</v>
       </c>
       <c r="I26" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-03-05 10:42:06</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>400</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>400</v>
+      </c>
+      <c r="I27" t="n">
         <v>13</v>
       </c>
     </row>
@@ -2651,7 +2692,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3726,6 +3767,47 @@
         <v>400</v>
       </c>
       <c r="I26" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-03-05 10:51:45</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>400</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>400</v>
+      </c>
+      <c r="I27" t="n">
         <v>255</v>
       </c>
     </row>
@@ -3740,7 +3822,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4818,6 +4900,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-03-05 10:41:15</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>400</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>400</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -1562,7 +1562,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2678,6 +2678,47 @@
         <v>400</v>
       </c>
       <c r="I27" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-03-05 11:29:35</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>400</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>400</v>
+      </c>
+      <c r="I28" t="n">
         <v>14</v>
       </c>
     </row>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1548,6 +1548,47 @@
         <v>400</v>
       </c>
       <c r="I27" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-03-05 11:42:06</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>400</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>400</v>
+      </c>
+      <c r="I28" t="n">
         <v>13</v>
       </c>
     </row>
@@ -2733,7 +2774,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3849,6 +3890,47 @@
         <v>400</v>
       </c>
       <c r="I27" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-03-05 11:51:45</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>400</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>400</v>
+      </c>
+      <c r="I28" t="n">
         <v>255</v>
       </c>
     </row>
@@ -3863,7 +3945,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4982,6 +5064,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-03-05 11:41:15</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>400</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>400</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -1603,7 +1603,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2760,6 +2760,47 @@
         <v>400</v>
       </c>
       <c r="I28" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-03-05 12:29:35</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>400</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>400</v>
+      </c>
+      <c r="I29" t="n">
         <v>14</v>
       </c>
     </row>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1589,6 +1589,47 @@
         <v>400</v>
       </c>
       <c r="I28" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-03-05 12:42:06</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>400</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>400</v>
+      </c>
+      <c r="I29" t="n">
         <v>13</v>
       </c>
     </row>
@@ -2815,7 +2856,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3972,6 +4013,47 @@
         <v>400</v>
       </c>
       <c r="I28" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-03-05 12:51:45</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>400</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>400</v>
+      </c>
+      <c r="I29" t="n">
         <v>255</v>
       </c>
     </row>
@@ -3986,7 +4068,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5146,6 +5228,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-03-05 12:41:15</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>400</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>400</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -1644,7 +1644,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2842,6 +2842,47 @@
         <v>400</v>
       </c>
       <c r="I29" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-03-05 13:29:35</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>400</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>400</v>
+      </c>
+      <c r="I30" t="n">
         <v>14</v>
       </c>
     </row>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1630,6 +1630,88 @@
         <v>400</v>
       </c>
       <c r="I29" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-03-05 13:42:06</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>400</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>400</v>
+      </c>
+      <c r="I30" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-03-05 14:42:06</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>400</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>400</v>
+      </c>
+      <c r="I31" t="n">
         <v>13</v>
       </c>
     </row>
@@ -1644,7 +1726,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2883,6 +2965,47 @@
         <v>400</v>
       </c>
       <c r="I30" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-03-05 14:29:35</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>400</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>400</v>
+      </c>
+      <c r="I31" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2897,7 +3020,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4095,6 +4218,88 @@
         <v>400</v>
       </c>
       <c r="I29" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-03-05 13:51:45</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>400</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>400</v>
+      </c>
+      <c r="I30" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-03-05 14:51:45</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>400</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>400</v>
+      </c>
+      <c r="I31" t="n">
         <v>255</v>
       </c>
     </row>
@@ -4109,7 +4314,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5310,6 +5515,88 @@
         <v>3</v>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-03-05 13:41:15</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>400</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>400</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-03-05 14:41:15</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>400</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>400</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1712,6 +1712,47 @@
         <v>400</v>
       </c>
       <c r="I31" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-03-05 15:42:06</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>400</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>400</v>
+      </c>
+      <c r="I32" t="n">
         <v>13</v>
       </c>
     </row>
@@ -1726,7 +1767,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3006,6 +3047,47 @@
         <v>400</v>
       </c>
       <c r="I31" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-03-05 15:29:35</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>400</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>400</v>
+      </c>
+      <c r="I32" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3020,7 +3102,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4300,6 +4382,47 @@
         <v>400</v>
       </c>
       <c r="I31" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-03-05 15:51:45</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>400</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>400</v>
+      </c>
+      <c r="I32" t="n">
         <v>255</v>
       </c>
     </row>
@@ -4314,7 +4437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5597,6 +5720,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-03-05 15:41:15</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>400</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>400</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1753,6 +1753,47 @@
         <v>400</v>
       </c>
       <c r="I32" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-03-05 16:42:06</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>400</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>400</v>
+      </c>
+      <c r="I33" t="n">
         <v>13</v>
       </c>
     </row>
@@ -1767,7 +1808,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3088,6 +3129,47 @@
         <v>400</v>
       </c>
       <c r="I32" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-03-05 16:29:35</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>400</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>400</v>
+      </c>
+      <c r="I33" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3102,7 +3184,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4423,6 +4505,47 @@
         <v>400</v>
       </c>
       <c r="I32" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-03-05 16:51:45</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>400</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>400</v>
+      </c>
+      <c r="I33" t="n">
         <v>255</v>
       </c>
     </row>
@@ -4437,7 +4560,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5761,6 +5884,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-03-05 16:41:15</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>400</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>400</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1794,6 +1794,47 @@
         <v>400</v>
       </c>
       <c r="I33" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-03-05 17:42:06</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>400</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>400</v>
+      </c>
+      <c r="I34" t="n">
         <v>13</v>
       </c>
     </row>
@@ -1808,7 +1849,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3170,6 +3211,47 @@
         <v>400</v>
       </c>
       <c r="I33" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-03-05 17:29:35</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>400</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>400</v>
+      </c>
+      <c r="I34" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3184,7 +3266,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4546,6 +4628,47 @@
         <v>400</v>
       </c>
       <c r="I33" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-03-05 17:51:45</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>400</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>400</v>
+      </c>
+      <c r="I34" t="n">
         <v>255</v>
       </c>
     </row>
@@ -4560,7 +4683,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5925,6 +6048,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-03-05 17:41:15</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>400</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>400</v>
+      </c>
+      <c r="I34" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1835,6 +1835,47 @@
         <v>400</v>
       </c>
       <c r="I34" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-03-05 18:42:06</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>400</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>400</v>
+      </c>
+      <c r="I35" t="n">
         <v>13</v>
       </c>
     </row>
@@ -1849,7 +1890,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3252,6 +3293,47 @@
         <v>400</v>
       </c>
       <c r="I34" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-03-05 18:29:35</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>400</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>400</v>
+      </c>
+      <c r="I35" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3266,7 +3348,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4669,6 +4751,47 @@
         <v>400</v>
       </c>
       <c r="I34" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-03-05 18:51:45</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>400</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>400</v>
+      </c>
+      <c r="I35" t="n">
         <v>255</v>
       </c>
     </row>
@@ -4683,7 +4806,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6089,6 +6212,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-03-05 18:41:15</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>400</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>400</v>
+      </c>
+      <c r="I35" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1876,6 +1876,47 @@
         <v>400</v>
       </c>
       <c r="I35" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-03-05 19:42:06</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>400</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>400</v>
+      </c>
+      <c r="I36" t="n">
         <v>13</v>
       </c>
     </row>
@@ -1890,7 +1931,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3334,6 +3375,47 @@
         <v>400</v>
       </c>
       <c r="I35" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-03-05 19:29:35</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>400</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>400</v>
+      </c>
+      <c r="I36" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3348,7 +3430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4792,6 +4874,47 @@
         <v>400</v>
       </c>
       <c r="I35" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-03-05 19:51:45</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>400</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>400</v>
+      </c>
+      <c r="I36" t="n">
         <v>255</v>
       </c>
     </row>
@@ -4806,7 +4929,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6253,6 +6376,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-03-05 19:41:15</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>400</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>400</v>
+      </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1917,6 +1917,47 @@
         <v>400</v>
       </c>
       <c r="I36" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-03-05 20:42:06</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>400</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>400</v>
+      </c>
+      <c r="I37" t="n">
         <v>13</v>
       </c>
     </row>
@@ -1931,7 +1972,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3416,6 +3457,47 @@
         <v>400</v>
       </c>
       <c r="I36" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-03-05 20:29:35</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>400</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>400</v>
+      </c>
+      <c r="I37" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3430,7 +3512,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4915,6 +4997,47 @@
         <v>400</v>
       </c>
       <c r="I36" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-03-05 20:51:45</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>400</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>400</v>
+      </c>
+      <c r="I37" t="n">
         <v>255</v>
       </c>
     </row>
@@ -4929,7 +5052,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6417,6 +6540,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-03-05 20:41:15</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>400</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>400</v>
+      </c>
+      <c r="I37" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1958,6 +1958,47 @@
         <v>400</v>
       </c>
       <c r="I37" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-03-05 21:42:06</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>400</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>400</v>
+      </c>
+      <c r="I38" t="n">
         <v>13</v>
       </c>
     </row>
@@ -1972,7 +2013,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3498,6 +3539,47 @@
         <v>400</v>
       </c>
       <c r="I37" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-03-05 21:29:35</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>400</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>400</v>
+      </c>
+      <c r="I38" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3512,7 +3594,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5038,6 +5120,47 @@
         <v>400</v>
       </c>
       <c r="I37" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-03-05 21:51:45</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>400</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>400</v>
+      </c>
+      <c r="I38" t="n">
         <v>255</v>
       </c>
     </row>
@@ -5052,7 +5175,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6581,6 +6704,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-03-05 21:41:15</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>400</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>400</v>
+      </c>
+      <c r="I38" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1999,6 +1999,47 @@
         <v>400</v>
       </c>
       <c r="I38" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-03-05 22:42:06</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>400</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>400</v>
+      </c>
+      <c r="I39" t="n">
         <v>13</v>
       </c>
     </row>
@@ -2013,7 +2054,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3580,6 +3621,47 @@
         <v>400</v>
       </c>
       <c r="I38" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-03-05 22:29:35</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>400</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>400</v>
+      </c>
+      <c r="I39" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3594,7 +3676,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5161,6 +5243,47 @@
         <v>400</v>
       </c>
       <c r="I38" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-03-05 22:51:45</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>400</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>400</v>
+      </c>
+      <c r="I39" t="n">
         <v>255</v>
       </c>
     </row>
@@ -5175,7 +5298,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6745,6 +6868,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-03-05 22:41:15</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>400</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>400</v>
+      </c>
+      <c r="I39" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2040,6 +2040,47 @@
         <v>400</v>
       </c>
       <c r="I39" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-03-05 23:42:06</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>400</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>400</v>
+      </c>
+      <c r="I40" t="n">
         <v>13</v>
       </c>
     </row>
@@ -2054,7 +2095,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3662,6 +3703,47 @@
         <v>400</v>
       </c>
       <c r="I39" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-03-05 23:29:35</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>400</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>400</v>
+      </c>
+      <c r="I40" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3676,7 +3758,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5284,6 +5366,47 @@
         <v>400</v>
       </c>
       <c r="I39" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-03-05 23:51:45</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>400</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>400</v>
+      </c>
+      <c r="I40" t="n">
         <v>255</v>
       </c>
     </row>
@@ -5298,7 +5421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6909,6 +7032,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-03-05 23:41:15</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>400</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>400</v>
+      </c>
+      <c r="I40" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2081,6 +2081,47 @@
         <v>400</v>
       </c>
       <c r="I40" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-03-06 00:42:06</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>400</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>400</v>
+      </c>
+      <c r="I41" t="n">
         <v>13</v>
       </c>
     </row>
@@ -2095,7 +2136,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3744,6 +3785,47 @@
         <v>400</v>
       </c>
       <c r="I40" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-03-06 00:29:35</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>400</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>400</v>
+      </c>
+      <c r="I41" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3758,7 +3840,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5407,6 +5489,47 @@
         <v>400</v>
       </c>
       <c r="I40" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-03-06 00:51:45</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>400</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>400</v>
+      </c>
+      <c r="I41" t="n">
         <v>255</v>
       </c>
     </row>
@@ -5421,7 +5544,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7073,6 +7196,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-03-06 00:41:15</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>400</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>400</v>
+      </c>
+      <c r="I41" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2122,6 +2122,47 @@
         <v>400</v>
       </c>
       <c r="I41" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-03-06 01:42:06</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>400</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>400</v>
+      </c>
+      <c r="I42" t="n">
         <v>13</v>
       </c>
     </row>
@@ -2136,7 +2177,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3826,6 +3867,47 @@
         <v>400</v>
       </c>
       <c r="I41" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-03-06 01:29:35</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>400</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>400</v>
+      </c>
+      <c r="I42" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3840,7 +3922,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5530,6 +5612,47 @@
         <v>400</v>
       </c>
       <c r="I41" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-03-06 01:51:45</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>400</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>400</v>
+      </c>
+      <c r="I42" t="n">
         <v>255</v>
       </c>
     </row>
@@ -5544,7 +5667,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7237,6 +7360,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-03-06 01:41:15</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>400</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>400</v>
+      </c>
+      <c r="I42" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2163,6 +2163,47 @@
         <v>400</v>
       </c>
       <c r="I42" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-03-06 02:42:06</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>400</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>400</v>
+      </c>
+      <c r="I43" t="n">
         <v>13</v>
       </c>
     </row>
@@ -2177,7 +2218,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3908,6 +3949,47 @@
         <v>400</v>
       </c>
       <c r="I42" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-03-06 02:29:35</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>400</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>400</v>
+      </c>
+      <c r="I43" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3922,7 +4004,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5653,6 +5735,47 @@
         <v>400</v>
       </c>
       <c r="I42" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-03-06 02:51:45</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>400</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>400</v>
+      </c>
+      <c r="I43" t="n">
         <v>255</v>
       </c>
     </row>
@@ -5667,7 +5790,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7401,6 +7524,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-03-06 02:41:15</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>400</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>400</v>
+      </c>
+      <c r="I43" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2204,6 +2204,47 @@
         <v>400</v>
       </c>
       <c r="I43" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-03-06 03:42:06</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>400</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>400</v>
+      </c>
+      <c r="I44" t="n">
         <v>13</v>
       </c>
     </row>
@@ -2218,7 +2259,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3990,6 +4031,47 @@
         <v>400</v>
       </c>
       <c r="I43" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-03-06 03:29:35</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>400</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>400</v>
+      </c>
+      <c r="I44" t="n">
         <v>14</v>
       </c>
     </row>
@@ -4004,7 +4086,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5776,6 +5858,47 @@
         <v>400</v>
       </c>
       <c r="I43" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-03-06 03:51:45</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>400</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>400</v>
+      </c>
+      <c r="I44" t="n">
         <v>255</v>
       </c>
     </row>
@@ -5790,7 +5913,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7565,6 +7688,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-03-06 03:41:15</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>400</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>400</v>
+      </c>
+      <c r="I44" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2245,6 +2245,47 @@
         <v>400</v>
       </c>
       <c r="I44" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-03-06 04:42:06</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>400</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>400</v>
+      </c>
+      <c r="I45" t="n">
         <v>13</v>
       </c>
     </row>
@@ -2259,7 +2300,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4072,6 +4113,47 @@
         <v>400</v>
       </c>
       <c r="I44" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-03-06 04:29:35</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>400</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>400</v>
+      </c>
+      <c r="I45" t="n">
         <v>14</v>
       </c>
     </row>
@@ -4086,7 +4168,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5899,6 +5981,47 @@
         <v>400</v>
       </c>
       <c r="I44" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-03-06 04:51:45</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>400</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>400</v>
+      </c>
+      <c r="I45" t="n">
         <v>255</v>
       </c>
     </row>
@@ -5913,7 +6036,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7729,6 +7852,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-03-06 04:41:15</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>400</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>400</v>
+      </c>
+      <c r="I45" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2286,6 +2286,47 @@
         <v>400</v>
       </c>
       <c r="I45" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-03-06 05:42:06</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>400</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>400</v>
+      </c>
+      <c r="I46" t="n">
         <v>13</v>
       </c>
     </row>
@@ -2300,7 +2341,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4154,6 +4195,47 @@
         <v>400</v>
       </c>
       <c r="I45" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-03-06 05:29:35</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>400</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>400</v>
+      </c>
+      <c r="I46" t="n">
         <v>14</v>
       </c>
     </row>
@@ -4168,7 +4250,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6022,6 +6104,47 @@
         <v>400</v>
       </c>
       <c r="I45" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-03-06 05:51:45</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>400</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>400</v>
+      </c>
+      <c r="I46" t="n">
         <v>255</v>
       </c>
     </row>
@@ -6036,7 +6159,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7893,6 +8016,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-03-06 05:41:15</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>400</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>400</v>
+      </c>
+      <c r="I46" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2327,6 +2327,47 @@
         <v>400</v>
       </c>
       <c r="I46" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-03-06 06:42:06</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>400</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>400</v>
+      </c>
+      <c r="I47" t="n">
         <v>13</v>
       </c>
     </row>
@@ -2341,7 +2382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4236,6 +4277,47 @@
         <v>400</v>
       </c>
       <c r="I46" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-03-06 06:29:35</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>400</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>400</v>
+      </c>
+      <c r="I47" t="n">
         <v>14</v>
       </c>
     </row>
@@ -4250,7 +4332,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6145,6 +6227,47 @@
         <v>400</v>
       </c>
       <c r="I46" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-03-06 06:51:45</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>400</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>400</v>
+      </c>
+      <c r="I47" t="n">
         <v>255</v>
       </c>
     </row>
@@ -6159,7 +6282,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8057,6 +8180,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-03-06 06:41:15</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>400</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>400</v>
+      </c>
+      <c r="I47" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2368,6 +2368,47 @@
         <v>400</v>
       </c>
       <c r="I47" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025-03-06 07:42:06</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>400</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>400</v>
+      </c>
+      <c r="I48" t="n">
         <v>13</v>
       </c>
     </row>
@@ -2382,7 +2423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4318,6 +4359,47 @@
         <v>400</v>
       </c>
       <c r="I47" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025-03-06 07:29:35</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>400</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>400</v>
+      </c>
+      <c r="I48" t="n">
         <v>14</v>
       </c>
     </row>
@@ -4332,7 +4414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6268,6 +6350,47 @@
         <v>400</v>
       </c>
       <c r="I47" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025-03-06 07:51:45</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>400</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>400</v>
+      </c>
+      <c r="I48" t="n">
         <v>255</v>
       </c>
     </row>
@@ -6282,7 +6405,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8221,6 +8344,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025-03-06 07:41:15</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>400</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>400</v>
+      </c>
+      <c r="I48" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2409,6 +2409,47 @@
         <v>400</v>
       </c>
       <c r="I48" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2025-03-06 08:42:06</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>400</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>400</v>
+      </c>
+      <c r="I49" t="n">
         <v>13</v>
       </c>
     </row>
@@ -2423,7 +2464,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4400,6 +4441,47 @@
         <v>400</v>
       </c>
       <c r="I48" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2025-03-06 08:29:35</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>400</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>400</v>
+      </c>
+      <c r="I49" t="n">
         <v>14</v>
       </c>
     </row>
@@ -4414,7 +4496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6391,6 +6473,47 @@
         <v>400</v>
       </c>
       <c r="I48" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2025-03-06 08:51:45</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>400</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>400</v>
+      </c>
+      <c r="I49" t="n">
         <v>255</v>
       </c>
     </row>
@@ -6405,7 +6528,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8385,6 +8508,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2025-03-06 08:41:15</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>400</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>400</v>
+      </c>
+      <c r="I49" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2450,6 +2450,47 @@
         <v>400</v>
       </c>
       <c r="I49" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-03-06 09:42:06</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>400</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>400</v>
+      </c>
+      <c r="I50" t="n">
         <v>13</v>
       </c>
     </row>
@@ -2464,7 +2505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4482,6 +4523,47 @@
         <v>400</v>
       </c>
       <c r="I49" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-03-06 09:29:35</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>400</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>400</v>
+      </c>
+      <c r="I50" t="n">
         <v>14</v>
       </c>
     </row>
@@ -4496,7 +4578,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6514,6 +6596,47 @@
         <v>400</v>
       </c>
       <c r="I49" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-03-06 09:51:45</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>400</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>400</v>
+      </c>
+      <c r="I50" t="n">
         <v>255</v>
       </c>
     </row>
@@ -6528,7 +6651,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8549,6 +8672,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-03-06 09:41:15</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>400</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>400</v>
+      </c>
+      <c r="I50" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2491,6 +2491,47 @@
         <v>400</v>
       </c>
       <c r="I50" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-03-06 10:42:06</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>400</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>400</v>
+      </c>
+      <c r="I51" t="n">
         <v>13</v>
       </c>
     </row>
@@ -2505,7 +2546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4564,6 +4605,47 @@
         <v>400</v>
       </c>
       <c r="I50" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-03-06 10:29:35</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>400</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>400</v>
+      </c>
+      <c r="I51" t="n">
         <v>14</v>
       </c>
     </row>
@@ -4578,7 +4660,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6637,6 +6719,47 @@
         <v>400</v>
       </c>
       <c r="I50" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-03-06 10:51:45</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>400</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>400</v>
+      </c>
+      <c r="I51" t="n">
         <v>255</v>
       </c>
     </row>
@@ -6651,7 +6774,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8713,6 +8836,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-03-06 10:41:15</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>400</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>400</v>
+      </c>
+      <c r="I51" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2532,6 +2532,47 @@
         <v>400</v>
       </c>
       <c r="I51" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-03-06 11:42:06</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>400</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>400</v>
+      </c>
+      <c r="I52" t="n">
         <v>13</v>
       </c>
     </row>
@@ -2546,7 +2587,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4646,6 +4687,47 @@
         <v>400</v>
       </c>
       <c r="I51" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-03-06 11:29:35</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>400</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>400</v>
+      </c>
+      <c r="I52" t="n">
         <v>14</v>
       </c>
     </row>
@@ -4660,7 +4742,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6760,6 +6842,47 @@
         <v>400</v>
       </c>
       <c r="I51" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-03-06 11:51:45</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>400</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>400</v>
+      </c>
+      <c r="I52" t="n">
         <v>255</v>
       </c>
     </row>
@@ -6774,7 +6897,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8877,6 +9000,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-03-06 11:41:15</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>400</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>400</v>
+      </c>
+      <c r="I52" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2573,6 +2573,47 @@
         <v>400</v>
       </c>
       <c r="I52" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2025-03-06 12:42:06</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>400</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>400</v>
+      </c>
+      <c r="I53" t="n">
         <v>13</v>
       </c>
     </row>
@@ -2587,7 +2628,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4728,6 +4769,47 @@
         <v>400</v>
       </c>
       <c r="I52" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2025-03-06 12:29:35</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>400</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>400</v>
+      </c>
+      <c r="I53" t="n">
         <v>14</v>
       </c>
     </row>
@@ -4742,7 +4824,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6883,6 +6965,47 @@
         <v>400</v>
       </c>
       <c r="I52" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2025-03-06 12:51:45</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>400</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>400</v>
+      </c>
+      <c r="I53" t="n">
         <v>255</v>
       </c>
     </row>
@@ -6897,7 +7020,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9041,6 +9164,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2025-03-06 12:41:15</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>400</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>400</v>
+      </c>
+      <c r="I53" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2614,6 +2614,47 @@
         <v>400</v>
       </c>
       <c r="I53" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-03-06 13:42:06</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>400</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>400</v>
+      </c>
+      <c r="I54" t="n">
         <v>13</v>
       </c>
     </row>
@@ -2628,7 +2669,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4810,6 +4851,47 @@
         <v>400</v>
       </c>
       <c r="I53" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-03-06 13:29:35</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>400</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>400</v>
+      </c>
+      <c r="I54" t="n">
         <v>14</v>
       </c>
     </row>
@@ -4824,7 +4906,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7006,6 +7088,47 @@
         <v>400</v>
       </c>
       <c r="I53" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-03-06 13:51:45</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>400</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>400</v>
+      </c>
+      <c r="I54" t="n">
         <v>255</v>
       </c>
     </row>
@@ -7020,7 +7143,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9205,6 +9328,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-03-06 13:41:15</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>400</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>400</v>
+      </c>
+      <c r="I54" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2655,6 +2655,47 @@
         <v>400</v>
       </c>
       <c r="I54" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-03-06 14:42:06</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>400</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>400</v>
+      </c>
+      <c r="I55" t="n">
         <v>13</v>
       </c>
     </row>
@@ -2669,7 +2710,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4892,6 +4933,47 @@
         <v>400</v>
       </c>
       <c r="I54" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-03-06 14:29:35</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>400</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>400</v>
+      </c>
+      <c r="I55" t="n">
         <v>14</v>
       </c>
     </row>
@@ -4906,7 +4988,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7129,6 +7211,47 @@
         <v>400</v>
       </c>
       <c r="I54" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-03-06 14:51:45</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>400</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>400</v>
+      </c>
+      <c r="I55" t="n">
         <v>255</v>
       </c>
     </row>
@@ -7143,7 +7266,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9369,6 +9492,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-03-06 14:41:15</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>400</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>400</v>
+      </c>
+      <c r="I55" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2696,6 +2696,47 @@
         <v>400</v>
       </c>
       <c r="I55" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-03-06 15:42:06</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>400</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>400</v>
+      </c>
+      <c r="I56" t="n">
         <v>13</v>
       </c>
     </row>
@@ -2710,7 +2751,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4974,6 +5015,47 @@
         <v>400</v>
       </c>
       <c r="I55" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-03-06 15:29:35</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>400</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>400</v>
+      </c>
+      <c r="I56" t="n">
         <v>14</v>
       </c>
     </row>
@@ -4988,7 +5070,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7252,6 +7334,47 @@
         <v>400</v>
       </c>
       <c r="I55" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-03-06 15:51:45</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>400</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>400</v>
+      </c>
+      <c r="I56" t="n">
         <v>255</v>
       </c>
     </row>
@@ -7266,7 +7389,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9533,6 +9656,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-03-06 15:41:15</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>400</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>400</v>
+      </c>
+      <c r="I56" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2737,6 +2737,47 @@
         <v>400</v>
       </c>
       <c r="I56" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-03-06 16:42:06</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>400</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>400</v>
+      </c>
+      <c r="I57" t="n">
         <v>13</v>
       </c>
     </row>
@@ -2751,7 +2792,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5056,6 +5097,47 @@
         <v>400</v>
       </c>
       <c r="I56" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-03-06 16:29:35</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>400</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>400</v>
+      </c>
+      <c r="I57" t="n">
         <v>14</v>
       </c>
     </row>
@@ -5070,7 +5152,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7375,6 +7457,47 @@
         <v>400</v>
       </c>
       <c r="I56" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-03-06 16:51:45</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>400</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>400</v>
+      </c>
+      <c r="I57" t="n">
         <v>255</v>
       </c>
     </row>
@@ -7389,7 +7512,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9697,6 +9820,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-03-06 16:41:15</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>400</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>400</v>
+      </c>
+      <c r="I57" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2778,6 +2778,47 @@
         <v>400</v>
       </c>
       <c r="I57" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-03-06 17:42:06</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>400</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>400</v>
+      </c>
+      <c r="I58" t="n">
         <v>13</v>
       </c>
     </row>
@@ -2792,7 +2833,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5138,6 +5179,47 @@
         <v>400</v>
       </c>
       <c r="I57" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-03-06 17:29:35</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>400</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>400</v>
+      </c>
+      <c r="I58" t="n">
         <v>14</v>
       </c>
     </row>
@@ -5152,7 +5234,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7498,6 +7580,47 @@
         <v>400</v>
       </c>
       <c r="I57" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-03-06 17:51:45</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>400</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>400</v>
+      </c>
+      <c r="I58" t="n">
         <v>255</v>
       </c>
     </row>
@@ -7512,7 +7635,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9861,6 +9984,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-03-06 17:41:15</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>400</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>400</v>
+      </c>
+      <c r="I58" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2819,6 +2819,47 @@
         <v>400</v>
       </c>
       <c r="I58" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-03-06 18:42:06</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>400</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>400</v>
+      </c>
+      <c r="I59" t="n">
         <v>13</v>
       </c>
     </row>
@@ -2833,7 +2874,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5220,6 +5261,47 @@
         <v>400</v>
       </c>
       <c r="I58" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-03-06 18:29:35</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>400</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>400</v>
+      </c>
+      <c r="I59" t="n">
         <v>14</v>
       </c>
     </row>
@@ -5234,7 +5316,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7621,6 +7703,47 @@
         <v>400</v>
       </c>
       <c r="I58" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-03-06 18:51:45</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>400</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>400</v>
+      </c>
+      <c r="I59" t="n">
         <v>255</v>
       </c>
     </row>
@@ -7635,7 +7758,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10025,6 +10148,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-03-06 18:41:15</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>400</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>400</v>
+      </c>
+      <c r="I59" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2860,6 +2860,47 @@
         <v>400</v>
       </c>
       <c r="I59" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2025-03-06 19:42:06</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>400</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>400</v>
+      </c>
+      <c r="I60" t="n">
         <v>13</v>
       </c>
     </row>
@@ -2874,7 +2915,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5302,6 +5343,47 @@
         <v>400</v>
       </c>
       <c r="I59" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2025-03-06 19:29:35</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>400</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>400</v>
+      </c>
+      <c r="I60" t="n">
         <v>14</v>
       </c>
     </row>
@@ -5316,7 +5398,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7744,6 +7826,47 @@
         <v>400</v>
       </c>
       <c r="I59" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2025-03-06 19:51:45</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>400</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>400</v>
+      </c>
+      <c r="I60" t="n">
         <v>255</v>
       </c>
     </row>
@@ -7758,7 +7881,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10189,6 +10312,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2025-03-06 19:41:15</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>400</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>400</v>
+      </c>
+      <c r="I60" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2901,6 +2901,47 @@
         <v>400</v>
       </c>
       <c r="I60" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025-03-06 20:42:06</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>400</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>400</v>
+      </c>
+      <c r="I61" t="n">
         <v>13</v>
       </c>
     </row>
@@ -2915,7 +2956,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5384,6 +5425,47 @@
         <v>400</v>
       </c>
       <c r="I60" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025-03-06 20:29:35</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>400</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>400</v>
+      </c>
+      <c r="I61" t="n">
         <v>14</v>
       </c>
     </row>
@@ -5398,7 +5480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7867,6 +7949,47 @@
         <v>400</v>
       </c>
       <c r="I60" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025-03-06 20:51:45</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>400</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>400</v>
+      </c>
+      <c r="I61" t="n">
         <v>255</v>
       </c>
     </row>
@@ -7881,7 +8004,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10353,6 +10476,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025-03-06 20:41:15</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>400</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>400</v>
+      </c>
+      <c r="I61" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2942,6 +2942,47 @@
         <v>400</v>
       </c>
       <c r="I61" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-03-06 21:42:06</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>400</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>400</v>
+      </c>
+      <c r="I62" t="n">
         <v>13</v>
       </c>
     </row>
@@ -2956,7 +2997,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5466,6 +5507,47 @@
         <v>400</v>
       </c>
       <c r="I61" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-03-06 21:29:35</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>400</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>400</v>
+      </c>
+      <c r="I62" t="n">
         <v>14</v>
       </c>
     </row>
@@ -5480,7 +5562,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7990,6 +8072,47 @@
         <v>400</v>
       </c>
       <c r="I61" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-03-06 21:51:45</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>400</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>400</v>
+      </c>
+      <c r="I62" t="n">
         <v>255</v>
       </c>
     </row>
@@ -8004,7 +8127,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10517,6 +10640,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-03-06 21:41:15</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>400</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>400</v>
+      </c>
+      <c r="I62" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I62"/>
+  <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2983,6 +2983,47 @@
         <v>400</v>
       </c>
       <c r="I62" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025-03-06 22:42:06</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>400</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>400</v>
+      </c>
+      <c r="I63" t="n">
         <v>13</v>
       </c>
     </row>
@@ -2997,7 +3038,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I62"/>
+  <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5548,6 +5589,47 @@
         <v>400</v>
       </c>
       <c r="I62" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025-03-06 22:29:35</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>400</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>400</v>
+      </c>
+      <c r="I63" t="n">
         <v>14</v>
       </c>
     </row>
@@ -5562,7 +5644,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I62"/>
+  <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8113,6 +8195,47 @@
         <v>400</v>
       </c>
       <c r="I62" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025-03-06 22:51:45</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>400</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>400</v>
+      </c>
+      <c r="I63" t="n">
         <v>255</v>
       </c>
     </row>
@@ -8127,7 +8250,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I62"/>
+  <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10681,6 +10804,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025-03-06 22:41:15</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>400</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>400</v>
+      </c>
+      <c r="I63" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I63"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3024,6 +3024,47 @@
         <v>400</v>
       </c>
       <c r="I63" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-03-06 23:42:06</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>400</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>400</v>
+      </c>
+      <c r="I64" t="n">
         <v>13</v>
       </c>
     </row>
@@ -3038,7 +3079,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I63"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5630,6 +5671,47 @@
         <v>400</v>
       </c>
       <c r="I63" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-03-06 23:29:35</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>400</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>400</v>
+      </c>
+      <c r="I64" t="n">
         <v>14</v>
       </c>
     </row>
@@ -5644,7 +5726,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I63"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8236,6 +8318,47 @@
         <v>400</v>
       </c>
       <c r="I63" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-03-06 23:51:45</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>400</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>400</v>
+      </c>
+      <c r="I64" t="n">
         <v>255</v>
       </c>
     </row>
@@ -8250,7 +8373,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I63"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10845,6 +10968,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-03-06 23:41:15</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>400</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>400</v>
+      </c>
+      <c r="I64" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3065,6 +3065,47 @@
         <v>400</v>
       </c>
       <c r="I64" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025-03-07 00:42:06</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>400</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>400</v>
+      </c>
+      <c r="I65" t="n">
         <v>13</v>
       </c>
     </row>
@@ -3079,7 +3120,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5712,6 +5753,47 @@
         <v>400</v>
       </c>
       <c r="I64" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025-03-07 00:29:35</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>400</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>400</v>
+      </c>
+      <c r="I65" t="n">
         <v>14</v>
       </c>
     </row>
@@ -5726,7 +5808,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8359,6 +8441,47 @@
         <v>400</v>
       </c>
       <c r="I64" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025-03-07 00:51:45</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>400</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>400</v>
+      </c>
+      <c r="I65" t="n">
         <v>255</v>
       </c>
     </row>
@@ -8373,7 +8496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11009,6 +11132,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025-03-07 00:41:15</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>400</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>400</v>
+      </c>
+      <c r="I65" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3106,6 +3106,47 @@
         <v>400</v>
       </c>
       <c r="I65" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2025-03-07 01:42:06</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>400</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>400</v>
+      </c>
+      <c r="I66" t="n">
         <v>13</v>
       </c>
     </row>
@@ -3120,7 +3161,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5794,6 +5835,47 @@
         <v>400</v>
       </c>
       <c r="I65" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2025-03-07 01:29:35</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>400</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>400</v>
+      </c>
+      <c r="I66" t="n">
         <v>14</v>
       </c>
     </row>
@@ -5808,7 +5890,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8482,6 +8564,47 @@
         <v>400</v>
       </c>
       <c r="I65" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2025-03-07 01:51:45</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>400</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>400</v>
+      </c>
+      <c r="I66" t="n">
         <v>255</v>
       </c>
     </row>
@@ -8496,7 +8619,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11173,6 +11296,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2025-03-07 01:41:15</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>400</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>400</v>
+      </c>
+      <c r="I66" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I66"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3147,6 +3147,47 @@
         <v>400</v>
       </c>
       <c r="I66" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-03-07 02:42:06</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>400</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>400</v>
+      </c>
+      <c r="I67" t="n">
         <v>13</v>
       </c>
     </row>
@@ -3161,7 +3202,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I66"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5876,6 +5917,47 @@
         <v>400</v>
       </c>
       <c r="I66" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-03-07 02:29:35</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>400</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>400</v>
+      </c>
+      <c r="I67" t="n">
         <v>14</v>
       </c>
     </row>
@@ -5890,7 +5972,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I66"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8605,6 +8687,47 @@
         <v>400</v>
       </c>
       <c r="I66" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-03-07 02:51:45</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>400</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>400</v>
+      </c>
+      <c r="I67" t="n">
         <v>255</v>
       </c>
     </row>
@@ -8619,7 +8742,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I66"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11337,6 +11460,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-03-07 02:41:15</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>400</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>400</v>
+      </c>
+      <c r="I67" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3188,6 +3188,47 @@
         <v>400</v>
       </c>
       <c r="I67" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-03-07 03:42:06</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>400</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>400</v>
+      </c>
+      <c r="I68" t="n">
         <v>13</v>
       </c>
     </row>
@@ -3202,7 +3243,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5958,6 +5999,47 @@
         <v>400</v>
       </c>
       <c r="I67" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-03-07 03:29:35</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>400</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>400</v>
+      </c>
+      <c r="I68" t="n">
         <v>14</v>
       </c>
     </row>
@@ -5972,7 +6054,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8728,6 +8810,47 @@
         <v>400</v>
       </c>
       <c r="I67" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-03-07 03:51:45</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>400</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>400</v>
+      </c>
+      <c r="I68" t="n">
         <v>255</v>
       </c>
     </row>
@@ -8742,7 +8865,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11501,6 +11624,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-03-07 03:41:15</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>400</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>400</v>
+      </c>
+      <c r="I68" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I68"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3229,6 +3229,47 @@
         <v>400</v>
       </c>
       <c r="I68" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-03-07 04:42:06</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>400</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>400</v>
+      </c>
+      <c r="I69" t="n">
         <v>13</v>
       </c>
     </row>
@@ -3243,7 +3284,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I68"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6040,6 +6081,47 @@
         <v>400</v>
       </c>
       <c r="I68" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-03-07 04:29:35</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>400</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>400</v>
+      </c>
+      <c r="I69" t="n">
         <v>14</v>
       </c>
     </row>
@@ -6054,7 +6136,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I68"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8851,6 +8933,47 @@
         <v>400</v>
       </c>
       <c r="I68" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-03-07 04:51:45</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>400</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>400</v>
+      </c>
+      <c r="I69" t="n">
         <v>255</v>
       </c>
     </row>
@@ -8865,7 +8988,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I68"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11665,6 +11788,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-03-07 04:41:15</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>400</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>400</v>
+      </c>
+      <c r="I69" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3270,6 +3270,47 @@
         <v>400</v>
       </c>
       <c r="I69" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-03-07 05:42:06</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>400</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>400</v>
+      </c>
+      <c r="I70" t="n">
         <v>13</v>
       </c>
     </row>
@@ -3284,7 +3325,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6122,6 +6163,47 @@
         <v>400</v>
       </c>
       <c r="I69" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-03-07 05:29:35</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>400</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>400</v>
+      </c>
+      <c r="I70" t="n">
         <v>14</v>
       </c>
     </row>
@@ -6136,7 +6218,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8974,6 +9056,47 @@
         <v>400</v>
       </c>
       <c r="I69" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-03-07 05:51:45</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>400</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>400</v>
+      </c>
+      <c r="I70" t="n">
         <v>255</v>
       </c>
     </row>
@@ -8988,7 +9111,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11829,6 +11952,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-03-07 05:41:15</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>400</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>400</v>
+      </c>
+      <c r="I70" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3311,6 +3311,47 @@
         <v>400</v>
       </c>
       <c r="I70" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-03-07 06:42:06</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>400</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>400</v>
+      </c>
+      <c r="I71" t="n">
         <v>13</v>
       </c>
     </row>
@@ -3325,7 +3366,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6204,6 +6245,47 @@
         <v>400</v>
       </c>
       <c r="I70" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-03-07 06:29:35</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>400</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>400</v>
+      </c>
+      <c r="I71" t="n">
         <v>14</v>
       </c>
     </row>
@@ -6218,7 +6300,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9097,6 +9179,47 @@
         <v>400</v>
       </c>
       <c r="I70" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-03-07 06:51:45</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>400</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>400</v>
+      </c>
+      <c r="I71" t="n">
         <v>255</v>
       </c>
     </row>
@@ -9111,7 +9234,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11993,6 +12116,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-03-07 06:41:15</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>400</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>400</v>
+      </c>
+      <c r="I71" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3352,6 +3352,47 @@
         <v>400</v>
       </c>
       <c r="I71" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-03-07 07:42:06</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>400</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>400</v>
+      </c>
+      <c r="I72" t="n">
         <v>13</v>
       </c>
     </row>
@@ -3366,7 +3407,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6286,6 +6327,47 @@
         <v>400</v>
       </c>
       <c r="I71" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-03-07 07:29:35</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>400</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>400</v>
+      </c>
+      <c r="I72" t="n">
         <v>14</v>
       </c>
     </row>
@@ -6300,7 +6382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9220,6 +9302,47 @@
         <v>400</v>
       </c>
       <c r="I71" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-03-07 07:51:45</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>400</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>400</v>
+      </c>
+      <c r="I72" t="n">
         <v>255</v>
       </c>
     </row>
@@ -9234,7 +9357,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12157,6 +12280,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-03-07 07:41:15</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>400</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>400</v>
+      </c>
+      <c r="I72" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3393,6 +3393,47 @@
         <v>400</v>
       </c>
       <c r="I72" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-03-07 08:42:06</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>400</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>400</v>
+      </c>
+      <c r="I73" t="n">
         <v>13</v>
       </c>
     </row>
@@ -3407,7 +3448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6368,6 +6409,47 @@
         <v>400</v>
       </c>
       <c r="I72" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-03-07 08:29:35</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>400</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>400</v>
+      </c>
+      <c r="I73" t="n">
         <v>14</v>
       </c>
     </row>
@@ -6382,7 +6464,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9343,6 +9425,47 @@
         <v>400</v>
       </c>
       <c r="I72" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-03-07 08:51:45</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>400</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>400</v>
+      </c>
+      <c r="I73" t="n">
         <v>255</v>
       </c>
     </row>
@@ -9357,7 +9480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12321,6 +12444,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-03-07 08:41:15</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>400</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>400</v>
+      </c>
+      <c r="I73" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3434,6 +3434,47 @@
         <v>400</v>
       </c>
       <c r="I73" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-03-07 09:42:06</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>400</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>400</v>
+      </c>
+      <c r="I74" t="n">
         <v>13</v>
       </c>
     </row>
@@ -3448,7 +3489,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6450,6 +6491,47 @@
         <v>400</v>
       </c>
       <c r="I73" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-03-07 09:29:35</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>400</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>400</v>
+      </c>
+      <c r="I74" t="n">
         <v>14</v>
       </c>
     </row>
@@ -6464,7 +6546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9466,6 +9548,47 @@
         <v>400</v>
       </c>
       <c r="I73" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-03-07 09:51:45</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>400</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>400</v>
+      </c>
+      <c r="I74" t="n">
         <v>255</v>
       </c>
     </row>
@@ -9480,7 +9603,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12485,6 +12608,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-03-07 09:41:15</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>400</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>400</v>
+      </c>
+      <c r="I74" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I74"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3475,6 +3475,47 @@
         <v>400</v>
       </c>
       <c r="I74" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-03-07 10:42:06</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>400</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>400</v>
+      </c>
+      <c r="I75" t="n">
         <v>13</v>
       </c>
     </row>
@@ -3489,7 +3530,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I74"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6532,6 +6573,47 @@
         <v>400</v>
       </c>
       <c r="I74" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-03-07 10:29:35</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>400</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>400</v>
+      </c>
+      <c r="I75" t="n">
         <v>14</v>
       </c>
     </row>
@@ -6546,7 +6628,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I74"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9589,6 +9671,47 @@
         <v>400</v>
       </c>
       <c r="I74" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-03-07 10:51:45</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>400</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>400</v>
+      </c>
+      <c r="I75" t="n">
         <v>255</v>
       </c>
     </row>
@@ -9603,7 +9726,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I74"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12649,6 +12772,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-03-07 10:41:15</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>400</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>400</v>
+      </c>
+      <c r="I75" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I75"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3516,6 +3516,47 @@
         <v>400</v>
       </c>
       <c r="I75" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025-03-07 11:42:06</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>400</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>400</v>
+      </c>
+      <c r="I76" t="n">
         <v>13</v>
       </c>
     </row>
@@ -3530,7 +3571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I75"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6614,6 +6655,47 @@
         <v>400</v>
       </c>
       <c r="I75" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025-03-07 11:29:35</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>400</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>400</v>
+      </c>
+      <c r="I76" t="n">
         <v>14</v>
       </c>
     </row>
@@ -6628,7 +6710,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I75"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9712,6 +9794,47 @@
         <v>400</v>
       </c>
       <c r="I75" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025-03-07 11:51:45</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>400</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>400</v>
+      </c>
+      <c r="I76" t="n">
         <v>255</v>
       </c>
     </row>
@@ -9726,7 +9849,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I75"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12813,6 +12936,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025-03-07 11:41:15</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>400</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>400</v>
+      </c>
+      <c r="I76" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I76"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3557,6 +3557,47 @@
         <v>400</v>
       </c>
       <c r="I76" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-03-07 12:42:06</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>400</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>400</v>
+      </c>
+      <c r="I77" t="n">
         <v>13</v>
       </c>
     </row>
@@ -3571,7 +3612,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I76"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6696,6 +6737,47 @@
         <v>400</v>
       </c>
       <c r="I76" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-03-07 12:29:35</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>400</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>400</v>
+      </c>
+      <c r="I77" t="n">
         <v>14</v>
       </c>
     </row>
@@ -6710,7 +6792,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I76"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9835,6 +9917,47 @@
         <v>400</v>
       </c>
       <c r="I76" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-03-07 12:51:45</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>400</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>400</v>
+      </c>
+      <c r="I77" t="n">
         <v>255</v>
       </c>
     </row>
@@ -9849,7 +9972,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I76"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12977,6 +13100,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-03-07 12:41:15</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>400</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>400</v>
+      </c>
+      <c r="I77" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3598,6 +3598,47 @@
         <v>400</v>
       </c>
       <c r="I77" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2025-03-07 13:42:06</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>400</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>400</v>
+      </c>
+      <c r="I78" t="n">
         <v>13</v>
       </c>
     </row>
@@ -3612,7 +3653,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6778,6 +6819,47 @@
         <v>400</v>
       </c>
       <c r="I77" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2025-03-07 13:29:35</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>400</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>400</v>
+      </c>
+      <c r="I78" t="n">
         <v>14</v>
       </c>
     </row>
@@ -6792,7 +6874,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9958,6 +10040,47 @@
         <v>400</v>
       </c>
       <c r="I77" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2025-03-07 13:51:45</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>400</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>400</v>
+      </c>
+      <c r="I78" t="n">
         <v>255</v>
       </c>
     </row>
@@ -9972,7 +10095,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13141,6 +13264,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2025-03-07 13:41:15</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>400</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>400</v>
+      </c>
+      <c r="I78" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I78"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3639,6 +3639,47 @@
         <v>400</v>
       </c>
       <c r="I78" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2025-03-07 14:42:06</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>400</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>400</v>
+      </c>
+      <c r="I79" t="n">
         <v>13</v>
       </c>
     </row>
@@ -3653,7 +3694,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I78"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6860,6 +6901,47 @@
         <v>400</v>
       </c>
       <c r="I78" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2025-03-07 14:29:35</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>400</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>400</v>
+      </c>
+      <c r="I79" t="n">
         <v>14</v>
       </c>
     </row>
@@ -6874,7 +6956,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I78"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10081,6 +10163,47 @@
         <v>400</v>
       </c>
       <c r="I78" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2025-03-07 14:51:45</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>400</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>400</v>
+      </c>
+      <c r="I79" t="n">
         <v>255</v>
       </c>
     </row>
@@ -10095,7 +10218,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I78"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13305,6 +13428,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2025-03-07 14:41:15</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>400</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>400</v>
+      </c>
+      <c r="I79" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3680,6 +3680,47 @@
         <v>400</v>
       </c>
       <c r="I79" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2025-03-07 15:42:06</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>400</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>400</v>
+      </c>
+      <c r="I80" t="n">
         <v>13</v>
       </c>
     </row>
@@ -3694,7 +3735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6942,6 +6983,47 @@
         <v>400</v>
       </c>
       <c r="I79" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2025-03-07 15:29:35</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>400</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>400</v>
+      </c>
+      <c r="I80" t="n">
         <v>14</v>
       </c>
     </row>
@@ -6956,7 +7038,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10204,6 +10286,47 @@
         <v>400</v>
       </c>
       <c r="I79" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2025-03-07 15:51:45</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>400</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>400</v>
+      </c>
+      <c r="I80" t="n">
         <v>255</v>
       </c>
     </row>
@@ -10218,7 +10341,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13469,6 +13592,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2025-03-07 15:41:15</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>400</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>400</v>
+      </c>
+      <c r="I80" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I80"/>
+  <dimension ref="A1:I81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3721,6 +3721,47 @@
         <v>400</v>
       </c>
       <c r="I80" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2025-03-07 16:42:06</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>400</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>400</v>
+      </c>
+      <c r="I81" t="n">
         <v>13</v>
       </c>
     </row>
@@ -3735,7 +3776,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I80"/>
+  <dimension ref="A1:I81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7024,6 +7065,47 @@
         <v>400</v>
       </c>
       <c r="I80" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2025-03-07 16:29:35</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>400</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>400</v>
+      </c>
+      <c r="I81" t="n">
         <v>14</v>
       </c>
     </row>
@@ -7038,7 +7120,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I80"/>
+  <dimension ref="A1:I81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10327,6 +10409,47 @@
         <v>400</v>
       </c>
       <c r="I80" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2025-03-07 16:51:45</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>400</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>400</v>
+      </c>
+      <c r="I81" t="n">
         <v>255</v>
       </c>
     </row>
@@ -10341,7 +10464,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I80"/>
+  <dimension ref="A1:I81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13633,6 +13756,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2025-03-07 16:41:15</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>400</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>400</v>
+      </c>
+      <c r="I81" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I81"/>
+  <dimension ref="A1:I82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3762,6 +3762,47 @@
         <v>400</v>
       </c>
       <c r="I81" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025-03-07 17:42:06</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>400</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>400</v>
+      </c>
+      <c r="I82" t="n">
         <v>13</v>
       </c>
     </row>
@@ -3776,7 +3817,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I81"/>
+  <dimension ref="A1:I82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7106,6 +7147,47 @@
         <v>400</v>
       </c>
       <c r="I81" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025-03-07 17:29:35</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>400</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>400</v>
+      </c>
+      <c r="I82" t="n">
         <v>14</v>
       </c>
     </row>
@@ -7120,7 +7202,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I81"/>
+  <dimension ref="A1:I82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10450,6 +10532,47 @@
         <v>400</v>
       </c>
       <c r="I81" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025-03-07 17:51:45</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>400</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>400</v>
+      </c>
+      <c r="I82" t="n">
         <v>255</v>
       </c>
     </row>
@@ -10464,7 +10587,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I81"/>
+  <dimension ref="A1:I82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13797,6 +13920,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025-03-07 17:41:15</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>400</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>400</v>
+      </c>
+      <c r="I82" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I82"/>
+  <dimension ref="A1:I83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3803,6 +3803,47 @@
         <v>400</v>
       </c>
       <c r="I82" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2025-03-07 18:42:06</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>400</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>400</v>
+      </c>
+      <c r="I83" t="n">
         <v>13</v>
       </c>
     </row>
@@ -3817,7 +3858,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I82"/>
+  <dimension ref="A1:I83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7188,6 +7229,47 @@
         <v>400</v>
       </c>
       <c r="I82" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2025-03-07 18:29:35</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>400</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>400</v>
+      </c>
+      <c r="I83" t="n">
         <v>14</v>
       </c>
     </row>
@@ -7202,7 +7284,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I82"/>
+  <dimension ref="A1:I83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10573,6 +10655,47 @@
         <v>400</v>
       </c>
       <c r="I82" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2025-03-07 18:51:45</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>400</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>400</v>
+      </c>
+      <c r="I83" t="n">
         <v>255</v>
       </c>
     </row>
@@ -10587,7 +10710,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I82"/>
+  <dimension ref="A1:I83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13961,6 +14084,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2025-03-07 18:41:15</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>400</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>400</v>
+      </c>
+      <c r="I83" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I83"/>
+  <dimension ref="A1:I84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3844,6 +3844,47 @@
         <v>400</v>
       </c>
       <c r="I83" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2025-03-07 19:42:06</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>400</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>400</v>
+      </c>
+      <c r="I84" t="n">
         <v>13</v>
       </c>
     </row>
@@ -3858,7 +3899,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I83"/>
+  <dimension ref="A1:I84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7270,6 +7311,47 @@
         <v>400</v>
       </c>
       <c r="I83" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2025-03-07 19:29:35</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>400</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>400</v>
+      </c>
+      <c r="I84" t="n">
         <v>14</v>
       </c>
     </row>
@@ -7284,7 +7366,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I83"/>
+  <dimension ref="A1:I84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10696,6 +10778,47 @@
         <v>400</v>
       </c>
       <c r="I83" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2025-03-07 19:51:45</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>400</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>400</v>
+      </c>
+      <c r="I84" t="n">
         <v>255</v>
       </c>
     </row>
@@ -10710,7 +10833,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I83"/>
+  <dimension ref="A1:I84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14125,6 +14248,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2025-03-07 19:41:15</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>400</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>400</v>
+      </c>
+      <c r="I84" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I84"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3885,6 +3885,47 @@
         <v>400</v>
       </c>
       <c r="I84" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2025-03-07 20:42:06</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>0x d</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>400</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>568631262647113770877196</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>400</v>
+      </c>
+      <c r="I85" t="n">
         <v>13</v>
       </c>
     </row>
@@ -3899,7 +3940,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I84"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7352,6 +7393,47 @@
         <v>400</v>
       </c>
       <c r="I84" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2025-03-07 20:29:35</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>0x e</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>400</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>568631262647113770942732</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>400</v>
+      </c>
+      <c r="I85" t="n">
         <v>14</v>
       </c>
     </row>
@@ -7366,7 +7448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I84"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10819,6 +10901,47 @@
         <v>400</v>
       </c>
       <c r="I84" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2025-03-07 20:51:45</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>400</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>400</v>
+      </c>
+      <c r="I85" t="n">
         <v>255</v>
       </c>
     </row>
@@ -10833,7 +10956,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I84"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14289,6 +14412,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2025-03-07 20:41:15</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>0x 3</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>400</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>568631262647113769959692</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>400</v>
+      </c>
+      <c r="I85" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
